--- a/Lab Details.xlsx
+++ b/Lab Details.xlsx
@@ -8,20 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\23-trainings\2-Confirmed\Dec-Puppet\GH\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28B6EAA1-D75F-4C36-B0A8-8E642C7743A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FE88B2A-4430-41AB-8D4B-3AEF5823CEB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Pax Lab" sheetId="1" r:id="rId1"/>
     <sheet name="CommonVms" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Pax Lab'!$A$1:$G$36</definedName>
+  </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="163">
   <si>
     <t>S.No.</t>
   </si>
@@ -421,30 +424,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Pendekanti Sonika</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Puppala Indraja</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>RAGHU H N</t>
     </r>
   </si>
@@ -641,18 +620,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Yadla Ramakrishna</t>
-    </r>
-  </si>
-  <si>
     <t>Emp. ID</t>
   </si>
   <si>
@@ -720,6 +687,111 @@
   </si>
   <si>
     <t>NAME</t>
+  </si>
+  <si>
+    <t>20+ years in IT. Automation via scripts.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13 years. </t>
+  </si>
+  <si>
+    <t>5 Years. Linux,</t>
+  </si>
+  <si>
+    <t>20+ Y in IT, Linux</t>
+  </si>
+  <si>
+    <t>8 Years, Linux admin, AWS, Azure</t>
+  </si>
+  <si>
+    <t>8+ Y, Linux</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>16+ Y, VMWare, Windows, Azure, Queries</t>
+  </si>
+  <si>
+    <t>6 Y, Oracle DB Admin</t>
+  </si>
+  <si>
+    <t>15+ Y in IT, Linux</t>
+  </si>
+  <si>
+    <t>4 Y, VMWare</t>
+  </si>
+  <si>
+    <t>Sonika Pendekanti</t>
+  </si>
+  <si>
+    <t>7 Y, Windows Admin</t>
+  </si>
+  <si>
+    <t>Indraja Puppala</t>
+  </si>
+  <si>
+    <t>3 Y, Automation with Powershell</t>
+  </si>
+  <si>
+    <t>7 Y, Oracle DBA, Using Puppet already</t>
+  </si>
+  <si>
+    <t>12 Y</t>
+  </si>
+  <si>
+    <t>6 Y, PHP Developer, Python Developer</t>
+  </si>
+  <si>
+    <t>8 Y, Linux 4 Years</t>
+  </si>
+  <si>
+    <t>20 Y, AWS, Puppet for Patching</t>
+  </si>
+  <si>
+    <t>7 Y, Linux Admin, Puppet for patching</t>
+  </si>
+  <si>
+    <t>7 Y, Linux, Puppet for daily tasks</t>
+  </si>
+  <si>
+    <t>8 Y</t>
+  </si>
+  <si>
+    <t>Mic issue</t>
+  </si>
+  <si>
+    <t>2.5 Y, Linux Admin</t>
+  </si>
+  <si>
+    <t>Exp?</t>
+  </si>
+  <si>
+    <t>7 Y, Linux</t>
+  </si>
+  <si>
+    <t>12 Y, Linux</t>
+  </si>
+  <si>
+    <t>3 Y, Linux</t>
+  </si>
+  <si>
+    <t>6.5 Y, Linux</t>
+  </si>
+  <si>
+    <t>13 Y, Windows and VMWare</t>
+  </si>
+  <si>
+    <t>12 Y, Windows SME, Puppet Patching</t>
+  </si>
+  <si>
+    <t>Ramakrishna Yadla</t>
+  </si>
+  <si>
+    <t>9 Y, Oracle DBA, Linux</t>
+  </si>
+  <si>
+    <t>9 Y, Shell Scripts</t>
   </si>
 </sst>
 </file>
@@ -1058,7 +1130,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -1188,6 +1260,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1233,7 +1325,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1256,6 +1348,12 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1573,11 +1671,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F36"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1587,29 +1684,33 @@
     <col min="4" max="4" width="16" style="3" customWidth="1"/>
     <col min="5" max="5" width="16.88671875" style="3" customWidth="1"/>
     <col min="6" max="6" width="17.88671875" customWidth="1"/>
+    <col min="7" max="7" width="57.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="7" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="7" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E1" s="6" t="s">
         <v>73</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>108</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -1624,10 +1725,10 @@
         <v>4</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -1644,10 +1745,13 @@
         <v>6</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>109</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -1664,10 +1768,13 @@
         <v>8</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>109</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -1684,10 +1791,13 @@
         <v>10</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>109</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -1704,10 +1814,13 @@
         <v>12</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>109</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -1724,10 +1837,13 @@
         <v>14</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>109</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -1744,10 +1860,13 @@
         <v>16</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>109</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -1764,10 +1883,13 @@
         <v>18</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>109</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -1784,10 +1906,13 @@
         <v>20</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>109</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -1804,10 +1929,13 @@
         <v>22</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>109</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>11</v>
       </c>
@@ -1824,10 +1952,13 @@
         <v>24</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>109</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>12</v>
       </c>
@@ -1844,10 +1975,13 @@
         <v>26</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>109</v>
+      </c>
+      <c r="G13" s="10" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>13</v>
       </c>
@@ -1864,10 +1998,13 @@
         <v>28</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>109</v>
+      </c>
+      <c r="G14" s="10" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <v>14</v>
       </c>
@@ -1884,10 +2021,13 @@
         <v>30</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>109</v>
+      </c>
+      <c r="G15" s="10" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <v>15</v>
       </c>
@@ -1904,18 +2044,21 @@
         <v>32</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>109</v>
+      </c>
+      <c r="G16" s="10" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <v>16</v>
       </c>
       <c r="B17" s="4">
         <v>46294898</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>88</v>
+      <c r="C17" s="2" t="s">
+        <v>139</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>33</v>
@@ -1924,18 +2067,21 @@
         <v>34</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>109</v>
+      </c>
+      <c r="G17" s="10" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <v>17</v>
       </c>
       <c r="B18" s="4">
         <v>46272476</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>89</v>
+      <c r="C18" s="2" t="s">
+        <v>141</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>35</v>
@@ -1944,10 +2090,13 @@
         <v>36</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>109</v>
+      </c>
+      <c r="G18" s="10" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <v>18</v>
       </c>
@@ -1955,7 +2104,7 @@
         <v>154239</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>37</v>
@@ -1964,10 +2113,13 @@
         <v>38</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>109</v>
+      </c>
+      <c r="G19" s="10" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
         <v>19</v>
       </c>
@@ -1975,7 +2127,7 @@
         <v>145966</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>39</v>
@@ -1984,10 +2136,13 @@
         <v>40</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>109</v>
+      </c>
+      <c r="G20" s="10" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
         <v>20</v>
       </c>
@@ -1995,7 +2150,7 @@
         <v>1</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>41</v>
@@ -2004,10 +2159,13 @@
         <v>42</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>109</v>
+      </c>
+      <c r="G21" s="10" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>21</v>
       </c>
@@ -2015,7 +2173,7 @@
         <v>46213629</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>43</v>
@@ -2024,10 +2182,13 @@
         <v>44</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>109</v>
+      </c>
+      <c r="G22" s="10" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="4">
         <v>22</v>
       </c>
@@ -2035,7 +2196,7 @@
         <v>84634</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>45</v>
@@ -2044,10 +2205,13 @@
         <v>46</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>109</v>
+      </c>
+      <c r="G23" s="10" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
         <v>23</v>
       </c>
@@ -2055,7 +2219,7 @@
         <v>46243263</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>47</v>
@@ -2064,10 +2228,13 @@
         <v>48</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>109</v>
+      </c>
+      <c r="G24" s="10" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
         <v>24</v>
       </c>
@@ -2075,7 +2242,7 @@
         <v>131956</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>49</v>
@@ -2084,10 +2251,13 @@
         <v>50</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>109</v>
+      </c>
+      <c r="G25" s="10" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
         <v>25</v>
       </c>
@@ -2095,7 +2265,7 @@
         <v>46212222</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>51</v>
@@ -2104,10 +2274,13 @@
         <v>52</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>109</v>
+      </c>
+      <c r="G26" s="10" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="4">
         <v>26</v>
       </c>
@@ -2115,7 +2288,7 @@
         <v>46153156</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>53</v>
@@ -2124,10 +2297,13 @@
         <v>54</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>109</v>
+      </c>
+      <c r="G27" s="10" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="4">
         <v>27</v>
       </c>
@@ -2135,7 +2311,7 @@
         <v>46091920</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>55</v>
@@ -2144,10 +2320,13 @@
         <v>56</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>109</v>
+      </c>
+      <c r="G28" s="10" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
         <v>28</v>
       </c>
@@ -2155,7 +2334,7 @@
         <v>131937</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>57</v>
@@ -2164,10 +2343,13 @@
         <v>58</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>109</v>
+      </c>
+      <c r="G29" s="10" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="4">
         <v>29</v>
       </c>
@@ -2175,7 +2357,7 @@
         <v>46249726</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>59</v>
@@ -2184,10 +2366,13 @@
         <v>60</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>109</v>
+      </c>
+      <c r="G30" s="10" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="4">
         <v>30</v>
       </c>
@@ -2195,7 +2380,7 @@
         <v>46237561</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>61</v>
@@ -2204,10 +2389,13 @@
         <v>62</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>109</v>
+      </c>
+      <c r="G31" s="10" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="4">
         <v>31</v>
       </c>
@@ -2215,7 +2403,7 @@
         <v>46023703</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>63</v>
@@ -2224,10 +2412,13 @@
         <v>64</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>109</v>
+      </c>
+      <c r="G32" s="10" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="4">
         <v>32</v>
       </c>
@@ -2235,7 +2426,7 @@
         <v>46230481</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>65</v>
@@ -2244,10 +2435,13 @@
         <v>66</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>109</v>
+      </c>
+      <c r="G33" s="10" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="4">
         <v>33</v>
       </c>
@@ -2255,7 +2449,7 @@
         <v>46147775</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>67</v>
@@ -2264,10 +2458,13 @@
         <v>68</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>109</v>
+      </c>
+      <c r="G34" s="10" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="4">
         <v>34</v>
       </c>
@@ -2275,7 +2472,7 @@
         <v>46141358</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>69</v>
@@ -2284,18 +2481,21 @@
         <v>70</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>109</v>
+      </c>
+      <c r="G35" s="10" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="4">
         <v>35</v>
       </c>
       <c r="B36" s="4">
         <v>46185790</v>
       </c>
-      <c r="C36" s="1" t="s">
-        <v>107</v>
+      <c r="C36" s="2" t="s">
+        <v>160</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>71</v>
@@ -2304,10 +2504,20 @@
         <v>72</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>112</v>
+        <v>109</v>
+      </c>
+      <c r="G36" s="10" t="s">
+        <v>161</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:G36" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="6">
+      <filters blank="1">
+        <filter val="?"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B1:C37">
     <sortCondition ref="C1:C37"/>
   </sortState>
@@ -2320,8 +2530,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2332,90 +2542,90 @@
   <sheetData>
     <row r="1" spans="1:3" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
